--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>stop</t>
@@ -133,7 +139,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
@@ -142,28 +148,40 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>special</t>
@@ -172,139 +190,130 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>key</t>
+    <t>increased</t>
   </si>
   <si>
     <t>helping</t>
@@ -313,61 +322,67 @@
     <t>available</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>social</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>social</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>stay</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>san</t>
@@ -737,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -809,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -827,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -856,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -874,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -906,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8076923076923077</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6986301369863014</v>
+        <v>0.6815068493150684</v>
       </c>
       <c r="C10">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1206,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5641025641025641</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8636363636363636</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5263157894736842</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.8292682926829268</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4838709677419355</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.8260869565217391</v>
+        <v>0.8359375</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4193548387096774</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,16 +1592,16 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4133333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.8028169014084507</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4054054054054054</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1674,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.796875</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L20">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1698,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3766233766233766</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7931034482758621</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.375968992248062</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C22">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D22">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1798,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3725490196078431</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1824,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1848,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3559322033898305</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7872340425531915</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3557046979865772</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1924,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1948,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1974,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1998,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2941176470588235</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.7450980392156863</v>
+        <v>0.7125</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2056,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.291005291005291</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2074,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.7358490566037735</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L28">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2098,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2106,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2711864406779661</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.71875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L29">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2148,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2156,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1984126984126984</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2174,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2198,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1625</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C31">
         <v>13</v>
@@ -2224,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2256,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1152815013404826</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2274,176 +2289,224 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6318537859007833</v>
       </c>
       <c r="L32">
+        <v>242</v>
+      </c>
+      <c r="M32">
+        <v>242</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1645569620253164</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>66</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1099195710455764</v>
+      </c>
+      <c r="C34">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>332</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <v>17</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.6</v>
+      </c>
+      <c r="L35">
         <v>24</v>
       </c>
-      <c r="M32">
+      <c r="M35">
         <v>24</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L33">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>18</v>
       </c>
-      <c r="M33">
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>0.5970588235294118</v>
+      </c>
+      <c r="L37">
+        <v>203</v>
+      </c>
+      <c r="M37">
+        <v>203</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L38">
         <v>18</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.64</v>
-      </c>
-      <c r="L34">
-        <v>32</v>
-      </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="M38">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.6161879895561357</v>
-      </c>
-      <c r="L35">
-        <v>236</v>
-      </c>
-      <c r="M35">
-        <v>236</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="L37">
-        <v>29</v>
-      </c>
-      <c r="M37">
-        <v>29</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
       <c r="N38">
         <v>1</v>
       </c>
@@ -2454,21 +2517,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2480,21 +2543,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.5823529411764706</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L40">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2506,21 +2569,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.5777777777777777</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2535,18 +2598,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="10:17">
+    <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.5730337078651685</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L42">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2558,21 +2621,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.5348837209302325</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2584,21 +2647,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2610,21 +2673,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.5220338983050847</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L45">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2636,21 +2699,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.5185185185185185</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2665,18 +2728,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="10:17">
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.5142857142857142</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2688,21 +2751,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L48">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K48">
-        <v>0.5062761506276151</v>
-      </c>
-      <c r="L48">
-        <v>121</v>
-      </c>
       <c r="M48">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2714,21 +2777,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2740,21 +2803,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.4931506849315068</v>
+        <v>0.5016949152542373</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2766,12 +2829,12 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K51">
         <v>0.4923076923076923</v>
@@ -2797,16 +2860,16 @@
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.4848484848484849</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2818,21 +2881,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K53">
-        <v>0.4761904761904762</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2844,21 +2907,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K54">
-        <v>0.475</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2870,21 +2933,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K55">
-        <v>0.4642857142857143</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2896,21 +2959,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K56">
-        <v>0.4642857142857143</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2922,21 +2985,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K57">
-        <v>0.4487179487179487</v>
+        <v>0.421875</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2948,21 +3011,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K58">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2974,21 +3037,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K59">
-        <v>0.3278688524590164</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3000,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K60">
-        <v>0.2978723404255319</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3026,21 +3089,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K61">
-        <v>0.288135593220339</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3052,21 +3115,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K62">
-        <v>0.2372881355932203</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3078,21 +3141,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K63">
-        <v>0.2083333333333333</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3104,21 +3167,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K64">
-        <v>0.1684210526315789</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3130,21 +3193,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K65">
-        <v>0.1653543307086614</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3156,21 +3219,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K66">
-        <v>0.1339712918660287</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L66">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3182,21 +3245,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>362</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K67">
-        <v>0.1145038167938931</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3208,21 +3271,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K68">
-        <v>0.1057692307692308</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L68">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M68">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3234,21 +3297,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K69">
-        <v>0.1023255813953488</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3260,21 +3323,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>193</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K70">
-        <v>0.09883720930232558</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3286,15 +3349,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K71">
-        <v>0.09696969696969697</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L71">
         <v>16</v>
@@ -3312,47 +3375,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K72">
-        <v>0.08837209302325581</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K73">
-        <v>0.07975460122699386</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3364,21 +3427,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K74">
-        <v>0.07829977628635347</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L74">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M74">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3390,73 +3453,73 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>824</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K75">
-        <v>0.06986899563318777</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L75">
         <v>16</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K76">
-        <v>0.06441717791411043</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>305</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K77">
-        <v>0.05549389567147614</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3468,47 +3531,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>851</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K78">
-        <v>0.05392912172573189</v>
+        <v>0.06599552572706935</v>
       </c>
       <c r="L78">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M78">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>614</v>
+        <v>835</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K79">
-        <v>0.0487012987012987</v>
+        <v>0.06437291897891231</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3520,73 +3583,73 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>293</v>
+        <v>843</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K80">
-        <v>0.04272517321016166</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L80">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M80">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>829</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K81">
-        <v>0.0355638745905475</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L81">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>2061</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K82">
-        <v>0.02880658436213992</v>
+        <v>0.04923076923076923</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M82">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3598,84 +3661,162 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>472</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K83">
-        <v>0.0183989670755326</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L83">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="M83">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K84">
-        <v>0.01656314699792961</v>
+        <v>0.03579676674364896</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N84">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>950</v>
+        <v>835</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K85">
-        <v>0.009714822939517392</v>
+        <v>0.03497942386831276</v>
       </c>
       <c r="L85">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K86">
+        <v>0.02194964493221433</v>
+      </c>
+      <c r="L86">
+        <v>68</v>
+      </c>
+      <c r="M86">
+        <v>77</v>
+      </c>
+      <c r="N86">
+        <v>0.88</v>
+      </c>
+      <c r="O86">
+        <v>0.12</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="L87">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>0.91</v>
+      </c>
+      <c r="O87">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K88">
+        <v>0.01064495929868503</v>
+      </c>
+      <c r="L88">
+        <v>34</v>
+      </c>
+      <c r="M88">
         <v>41</v>
       </c>
-      <c r="N85">
-        <v>0.76</v>
-      </c>
-      <c r="O85">
-        <v>0.24</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
+      <c r="N88">
+        <v>0.83</v>
+      </c>
+      <c r="O88">
+        <v>0.17</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
         <v>3160</v>
       </c>
     </row>
